--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>506.1401663634164</v>
+        <v>3091.166193262814</v>
       </c>
       <c r="R2">
-        <v>506.1401663634164</v>
+        <v>27820.49573936533</v>
       </c>
       <c r="S2">
-        <v>0.00664862846196454</v>
+        <v>0.014293563880716</v>
       </c>
       <c r="T2">
-        <v>0.00664862846196454</v>
+        <v>0.014293563880716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>145.4489448707469</v>
+        <v>252.6374154227257</v>
       </c>
       <c r="R3">
-        <v>145.4489448707469</v>
+        <v>2273.736738804531</v>
       </c>
       <c r="S3">
-        <v>0.001910609074119623</v>
+        <v>0.001168196340874221</v>
       </c>
       <c r="T3">
-        <v>0.001910609074119623</v>
+        <v>0.001168196340874221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>84.37191513042725</v>
+        <v>148.188679985346</v>
       </c>
       <c r="R4">
-        <v>84.37191513042725</v>
+        <v>1333.698119868114</v>
       </c>
       <c r="S4">
-        <v>0.001108304682390765</v>
+        <v>0.0006852250029086148</v>
       </c>
       <c r="T4">
-        <v>0.001108304682390765</v>
+        <v>0.0006852250029086147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>49511.30829516686</v>
+        <v>179891.5573737531</v>
       </c>
       <c r="R5">
-        <v>49511.30829516686</v>
+        <v>1619024.016363778</v>
       </c>
       <c r="S5">
-        <v>0.6503777320924763</v>
+        <v>0.8318192249020279</v>
       </c>
       <c r="T5">
-        <v>0.6503777320924763</v>
+        <v>0.831819224902028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>14228.01039965595</v>
+        <v>14702.32762325308</v>
       </c>
       <c r="R6">
-        <v>14228.01039965595</v>
+        <v>132320.9486092777</v>
       </c>
       <c r="S6">
-        <v>0.1868983360478015</v>
+        <v>0.06798361716565143</v>
       </c>
       <c r="T6">
-        <v>0.1868983360478015</v>
+        <v>0.06798361716565145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>8253.373628673497</v>
+        <v>8623.894918954984</v>
       </c>
       <c r="R7">
-        <v>8253.373628673497</v>
+        <v>77615.05427059486</v>
       </c>
       <c r="S7">
-        <v>0.1084158469561692</v>
+        <v>0.03987692191811731</v>
       </c>
       <c r="T7">
-        <v>0.1084158469561692</v>
+        <v>0.03987692191811731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>2337.137112057314</v>
+        <v>8456.492502419585</v>
       </c>
       <c r="R8">
-        <v>2337.137112057314</v>
+        <v>76108.43252177627</v>
       </c>
       <c r="S8">
-        <v>0.03070050028707029</v>
+        <v>0.03910285252652329</v>
       </c>
       <c r="T8">
-        <v>0.03070050028707029</v>
+        <v>0.0391028525265233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>671.6205303550697</v>
+        <v>691.1392904106144</v>
       </c>
       <c r="R9">
-        <v>671.6205303550697</v>
+        <v>6220.25361369553</v>
       </c>
       <c r="S9">
-        <v>0.008822369119293016</v>
+        <v>0.003195830628417115</v>
       </c>
       <c r="T9">
-        <v>0.008822369119293016</v>
+        <v>0.003195830628417116</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>389.5931348097891</v>
+        <v>405.39925157398</v>
       </c>
       <c r="R10">
-        <v>389.5931348097891</v>
+        <v>3648.59326416582</v>
       </c>
       <c r="S10">
-        <v>0.005117673278714862</v>
+        <v>0.001874567634764009</v>
       </c>
       <c r="T10">
-        <v>0.005117673278714862</v>
+        <v>0.001874567634764009</v>
       </c>
     </row>
   </sheetData>
